--- a/AD-EYE/Experiments/Test_World_1/Simulation/TAgoal1.xlsx
+++ b/AD-EYE/Experiments/Test_World_1/Simulation/TAgoal1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Radhika\AD-EYE_Core\AD-EYE\Experiments\Test_World_1\Simulation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adeye\AD-EYE_Core\AD-EYE\Experiments\Test_World_1\Simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE1FEEE-007D-4769-9E58-59748E122209}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11625" windowHeight="12270"/>
+    <workbookView xWindow="30270" yWindow="1470" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Variable</t>
   </si>
@@ -41,9 +42,6 @@
     <t>msg.Pose.Orientation.X</t>
   </si>
   <si>
-    <t>0.707</t>
-  </si>
-  <si>
     <t>msg.Pose.Orientation.Y</t>
   </si>
   <si>
@@ -57,21 +55,6 @@
   </si>
   <si>
     <t>Goal1</t>
-  </si>
-  <si>
-    <t>137.5</t>
-  </si>
-  <si>
-    <t>Goal2</t>
-  </si>
-  <si>
-    <t>-0.707</t>
-  </si>
-  <si>
-    <t>Goal3</t>
-  </si>
-  <si>
-    <t>Goal4</t>
   </si>
   <si>
     <t>"world"</t>
@@ -80,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -392,11 +375,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,16 +396,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -430,16 +404,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>120</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>150</v>
-      </c>
-      <c r="E2">
-        <v>160</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -447,16 +412,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>177</v>
-      </c>
-      <c r="C3">
-        <v>175</v>
-      </c>
-      <c r="D3">
-        <v>175</v>
-      </c>
-      <c r="E3">
-        <v>175</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -466,15 +422,6 @@
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -483,83 +430,42 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
